--- a/biology/Botanique/Genévrier_de_Chine/Genévrier_de_Chine.xlsx
+++ b/biology/Botanique/Genévrier_de_Chine/Genévrier_de_Chine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gen%C3%A9vrier_de_Chine</t>
+          <t>Genévrier_de_Chine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genévrier de Chine (Juniperus chinensis) est une espèce d'arbres appartenant au genre Juniperus et à la famille des Cupressaceae. Il est originaire du continent asiatique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gen%C3%A9vrier_de_Chine</t>
+          <t>Genévrier_de_Chine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire de Chine, du Japon, de Corée, de Birmanie et de Russie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire de Chine, du Japon, de Corée, de Birmanie et de Russie.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gen%C3%A9vrier_de_Chine</t>
+          <t>Genévrier_de_Chine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juniperus chinensis est un arbre à port généralement pyramidal (variable selon les cultivars), pouvant atteindre 25 mètres de haut et à écorce brun-grisâtre[1]. Son feuillage est composé de feuilles en aiguilles longues de 6 à 12 mm, opposées ou verticillées par 3, avec deux bandes stomatiques blanches ; et de feuilles en écailles, longues de 1,5 à 3 mm, opposées et appliquées au rameau[1].
-L'espèce est dioïque ou rarement monoïque[1]. Elle produit des cônes mâles jaunes, longs de 4 à 6 mm, et des cônes femelles charnus, subglobuleux ("baies"), de 4 à 9 mm de diamètre, murissant en 2 ans et contenant généralement 2 à 3 graines brunes, ovoïdes à 3 angles[1]. La pollinisation est anémogame, et se déroule d'avril à mai.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juniperus chinensis est un arbre à port généralement pyramidal (variable selon les cultivars), pouvant atteindre 25 mètres de haut et à écorce brun-grisâtre. Son feuillage est composé de feuilles en aiguilles longues de 6 à 12 mm, opposées ou verticillées par 3, avec deux bandes stomatiques blanches ; et de feuilles en écailles, longues de 1,5 à 3 mm, opposées et appliquées au rameau.
+L'espèce est dioïque ou rarement monoïque. Elle produit des cônes mâles jaunes, longs de 4 à 6 mm, et des cônes femelles charnus, subglobuleux ("baies"), de 4 à 9 mm de diamètre, murissant en 2 ans et contenant généralement 2 à 3 graines brunes, ovoïdes à 3 angles. La pollinisation est anémogame, et se déroule d'avril à mai.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gen%C3%A9vrier_de_Chine</t>
+          <t>Genévrier_de_Chine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genévrier de Chine est ses cultivars sont utilisés comme plante ornementale en horticulture. On l'utilise comme plante spécimen ou en couvre-sol, selon la variété.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gen%C3%A9vrier_de_Chine</t>
+          <t>Genévrier_de_Chine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,22 +625,132 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Méthode de propagation
-Semis ou par greffage pour les cultivars.
-Besoins de culture
-Lumière: soleil, mi-ombre
+          <t>Méthode de propagation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Semis ou par greffage pour les cultivars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Genévrier_de_Chine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gen%C3%A9vrier_de_Chine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Agriculture et horticulture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Besoins de culture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lumière: soleil, mi-ombre
 Sol: Supporte terrains secs et calcaires, essence rustique.
 Entretien: aucun
 Supporte bien la taille, utilisation topiaire ou 'zen' possible.
-Variétés cultivées
-Il existe une centaine de cultivars du genévrier de Chine sur le marché, tant des plantes au port pyramidal que rampant[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Genévrier_de_Chine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gen%C3%A9vrier_de_Chine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Agriculture et horticulture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Variétés cultivées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une centaine de cultivars du genévrier de Chine sur le marché, tant des plantes au port pyramidal que rampant.
 J. chinensis ‘Aurea’: Port dressé, feuillage doré
 J. chinensis ‘Columnaris’: Port en cône étroit
 J. chinensis  ‘Columnaris Glauca’: Pyramidal étroit, de couleur bleu
 J. chinensis ‘Old Gold’: Feuillage doré convenant bien aux rocailles
-L'espèce, croisée avec le Juniperus sabina, donne un hybride Juniperus x pfitzeriana, qui a des rameaux aux extrémités retombantes ainsi qu’un feuillage squamiformes vert clair[2].
-Ennemis
-Cette variété de genévrier est l'hôte principal de plusieurs maladies cryptogamiques appelées rouilles grillagées, dont la rouille grillagée du poirier qui a comme hôte secondaire le poirier auquel il cause de très importants dégâts au niveau des feuilles, des rameaux et des fruits.
+L'espèce, croisée avec le Juniperus sabina, donne un hybride Juniperus x pfitzeriana, qui a des rameaux aux extrémités retombantes ainsi qu’un feuillage squamiformes vert clair.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Genévrier_de_Chine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gen%C3%A9vrier_de_Chine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Agriculture et horticulture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ennemis</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété de genévrier est l'hôte principal de plusieurs maladies cryptogamiques appelées rouilles grillagées, dont la rouille grillagée du poirier qui a comme hôte secondaire le poirier auquel il cause de très importants dégâts au niveau des feuilles, des rameaux et des fruits.
 Principaux ennemis: Araignées rouges et coléoptères, rouille grillagée, rouille, dépérissement physiologique, armillaires, chenilles de mineuse, cochenilles, pucerons.
 </t>
         </is>
